--- a/Example/Project_E/UTILL/excel2json-master/STAGE_CHARACTER_DATA.xlsx
+++ b/Example/Project_E/UTILL/excel2json-master/STAGE_CHARACTER_DATA.xlsx
@@ -21,10 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
-    <t>STAGE_CHARACTER_DATA{{}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +70,10 @@
   </si>
   <si>
     <t>CHARACTER_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#STAGE_CHARACTER_DATA{{}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,83 +401,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
